--- a/results/Cs137/Cs137_R_30_cm_Nr_2000000000_ISO_model_det3  - Unfolded Fluence Spectrum.xlsx
+++ b/results/Cs137/Cs137_R_30_cm_Nr_2000000000_ISO_model_det3  - Unfolded Fluence Spectrum.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -511,40 +511,40 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>22.29280551904881</v>
+        <v>19.12075701903682</v>
       </c>
       <c r="D2" t="n">
         <v>0.006944391349456487</v>
       </c>
       <c r="E2" t="n">
-        <v>0.02111450030030732</v>
+        <v>0.01982943797740053</v>
       </c>
       <c r="F2" t="n">
-        <v>10.72301695195052</v>
+        <v>6.43574522052764</v>
       </c>
       <c r="G2" t="n">
-        <v>9.671235824152042</v>
+        <v>4.880527300504895</v>
       </c>
       <c r="H2" t="n">
-        <v>11.74523845061342</v>
+        <v>8.028407224427962</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01132953513223016</v>
+        <v>0.01127037339402469</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0001684070727336564</v>
+        <v>0.0001479390551849626</v>
       </c>
       <c r="K2" t="n">
-        <v>0.03313166383568563</v>
+        <v>0.03319840108710079</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0115270862123753</v>
+        <v>0.009683783839237323</v>
       </c>
       <c r="M2" t="n">
-        <v>0.009194042643972115</v>
+        <v>0.007049087243936361</v>
       </c>
       <c r="N2" t="n">
-        <v>0.01518083669328807</v>
+        <v>0.01360509963030212</v>
       </c>
     </row>
     <row r="3">
@@ -557,40 +557,86 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.05063116607513096</v>
+        <v>0.04981522627320694</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0489062734933936</v>
+        <v>0.04815098319456564</v>
       </c>
       <c r="E3" t="n">
-        <v>0.05076829414557697</v>
+        <v>0.0499839736740351</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1818489769444615</v>
+        <v>0.4196967456456215</v>
       </c>
       <c r="G3" t="n">
-        <v>1.100084985682557e-05</v>
+        <v>0.0007344518393852771</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4430635719976806</v>
+        <v>0.9750855229113127</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1480651593276194</v>
+        <v>0.391548701597749</v>
       </c>
       <c r="J3" t="n">
-        <v>9.760066645865494e-06</v>
+        <v>0.0006809280810006554</v>
       </c>
       <c r="K3" t="n">
-        <v>0.364793123401572</v>
+        <v>0.9080923941064535</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1512429480631892</v>
+        <v>0.4333238343391768</v>
       </c>
       <c r="M3" t="n">
-        <v>1.005732673358017e-05</v>
+        <v>0.0007655009861053424</v>
       </c>
       <c r="N3" t="n">
-        <v>0.3753920347330749</v>
+        <v>1.006663152852654</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Beta + Gamma</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>19.17057224531003</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.05509537454402212</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.06981341165143562</v>
+      </c>
+      <c r="F4" t="n">
+        <v>6.855441966173261</v>
+      </c>
+      <c r="G4" t="n">
+        <v>4.88126175234428</v>
+      </c>
+      <c r="H4" t="n">
+        <v>9.003492747339275</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.4028190749917737</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.000828867136185618</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.9412907951935543</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.4430076181784141</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.007814588230041705</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1.020268252482956</v>
       </c>
     </row>
   </sheetData>
